--- a/estatisticas_jogadores_formatado.xlsx
+++ b/estatisticas_jogadores_formatado.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t xml:space="preserve">Jogador</t>
   </si>
@@ -62,6 +62,54 @@
   </si>
   <si>
     <t xml:space="preserve">Jogos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zerefly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvestruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palomares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josefino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gio</t>
   </si>
 </sst>
 </file>
@@ -360,7 +408,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="A2:L21"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,62 +471,122 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="N13" s="1"/>
     </row>
